--- a/2020计划/每日计划/2020年前计划.xlsx
+++ b/2020计划/每日计划/2020年前计划.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31740" windowHeight="14480"/>
+    <workbookView windowHeight="14460" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="年前01" sheetId="1" r:id="rId1"/>
+    <sheet name="年前02" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -68,9 +69,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -91,6 +92,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -127,6 +135,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -135,48 +221,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,51 +234,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -249,181 +250,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,52 +441,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,6 +477,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -534,157 +524,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,9 +696,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1027,8 +1025,8 @@
   <sheetPr/>
   <dimension ref="A2:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="3"/>
@@ -1159,15 +1157,15 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="3"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" ht="23.2" spans="2:3">
       <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="3">
@@ -1295,22 +1293,22 @@
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="6"/>
+      <c r="B35" s="5"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="6"/>
+      <c r="B36" s="5"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="6"/>
+      <c r="B37" s="5"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="6"/>
+      <c r="B38" s="5"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="6"/>
+      <c r="B39" s="5"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="6"/>
+      <c r="B40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1328,4 +1326,292 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B2:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="41.6607142857143" customWidth="1"/>
+    <col min="5" max="5" width="74.8482142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" s="3">
+        <v>44175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="3"/>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="3">
+        <v>44176</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="3">
+        <v>44177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="3"/>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" s="3">
+        <v>44178</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" ht="23.2" spans="3:4">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="3">
+        <v>44179</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="3"/>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="3"/>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="3">
+        <v>44180</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="3"/>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="3"/>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="3">
+        <v>44181</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="3"/>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="3"/>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="3">
+        <v>44182</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="3"/>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="3"/>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D16:D18"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>